--- a/Vincent_Leung_Portfolio_2016/Issue_Reports.xlsx
+++ b/Vincent_Leung_Portfolio_2016/Issue_Reports.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Technical</t>
   </si>
@@ -144,12 +144,165 @@
   <si>
     <t>Error message appears and user is unable to continue with set up. Must close out set up window</t>
   </si>
+  <si>
+    <t>DR-D-0002</t>
+  </si>
+  <si>
+    <t>Accountant invitation not sent to email address</t>
+  </si>
+  <si>
+    <t>1. At the home page, click Get set up by a pro
+2. In the empty field, enter the email address to send a test invite
+3. Click Invite accountant</t>
+  </si>
+  <si>
+    <t>Email address receives an invite to the QuickBooks platform</t>
+  </si>
+  <si>
+    <t>No email received at test email address</t>
+  </si>
+  <si>
+    <t>Test email address</t>
+  </si>
+  <si>
+    <t>Error message overlay appears for a valid partial name search in customers list</t>
+  </si>
+  <si>
+    <t>DR-E-0001</t>
+  </si>
+  <si>
+    <t>1. Click Customers from the left menu
+2. In the search field, enter a partial string of a customer's name</t>
+  </si>
+  <si>
+    <t>Customer names matching the partial string search would appear and no error messages appear</t>
+  </si>
+  <si>
+    <t>Customer entries appear in the list and an error message overlay appears under the search field</t>
+  </si>
+  <si>
+    <t>Please make a valid entry.</t>
+  </si>
+  <si>
+    <t>Unable to access Manage Users menu after attempting to delete master account</t>
+  </si>
+  <si>
+    <t>DR-F-0001</t>
+  </si>
+  <si>
+    <t>User would be unable to delete the master account</t>
+  </si>
+  <si>
+    <t>User unable to delete master account and the Your Account page is blank. User is unable to reload page, must shut down program and restart</t>
+  </si>
+  <si>
+    <t>1. Click the settings icon in the top menu bar
+2. Click Your Account
+3. In the Manage Users section, select the master account
+4. Click Delete and confirm</t>
+  </si>
+  <si>
+    <t>Blank page is loaded after editing and saving changes to account first and/or last name</t>
+  </si>
+  <si>
+    <t>DR-F-0002</t>
+  </si>
+  <si>
+    <t>1. Click the settings icon in the top menu bar
+2. Click Your Account
+3. In the Manage Users section, select an account
+4. Select Edit and make changes to the first and/or last name(s)
+5. Select Save</t>
+  </si>
+  <si>
+    <t>Changes are saved and the page is shown reflecting that</t>
+  </si>
+  <si>
+    <t>Changes are saved, but a blank screen appears and user must manually refresh the page by revisiting it to confirm</t>
+  </si>
+  <si>
+    <t>Unable to make another user a Company Administrator</t>
+  </si>
+  <si>
+    <t>DR-F-0003</t>
+  </si>
+  <si>
+    <t>Able to make another user a Company Administrator</t>
+  </si>
+  <si>
+    <t>Action does not complete. A blank loading screen appears behind window and never loads.</t>
+  </si>
+  <si>
+    <t>Refer a Friend screen is slow to load</t>
+  </si>
+  <si>
+    <t>DR-F-0004</t>
+  </si>
+  <si>
+    <t>1. Click the settings icon in the top menu bar
+2. Under Your Company, select Your Account
+3. In the Manage Users section, click Transfer Master Administrator
+4. Click Make someone a Company Administrator</t>
+  </si>
+  <si>
+    <t>1. Click the settings icon in the top menu bar
+2. Under Your Company, select Refer a Friend</t>
+  </si>
+  <si>
+    <t>The following screen would load at an expected time under normal network conditions</t>
+  </si>
+  <si>
+    <t>Did not experience any other network issues at time of issue.</t>
+  </si>
+  <si>
+    <t>The Refer a Friend screen loaded after approximately 30 seconds</t>
+  </si>
+  <si>
+    <t>DR-F-0005</t>
+  </si>
+  <si>
+    <t>Unable to refer more friends after referring once</t>
+  </si>
+  <si>
+    <t>1. Click the settings icon in the top menu bar
+2. Under Your Company, select Refer a Friend
+3. Enter email address(es) of friends to invite
+4. Click Send Email
+5. In the confirmation window, click Refer another friend</t>
+  </si>
+  <si>
+    <t>User woud be brought back to the Refer a Friend screen to enter more email addresses</t>
+  </si>
+  <si>
+    <t>The Refer a Friend screen loaded, but  the email address field and Send Email button are no longer present. The space states "Facebook Loading"</t>
+  </si>
+  <si>
+    <t>There must at least one inactive vendor or customer</t>
+  </si>
+  <si>
+    <t>DR-G-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include inactive option disables after leaving list view </t>
+  </si>
+  <si>
+    <t>1. From the left menu, click either Customers or Vendors
+2. Click the tools icon at the top right and select Include inactive
+3. Select another menu from the list other than the current one
+4. Select either Customers or Vendors that was chosen in step 1</t>
+  </si>
+  <si>
+    <t>Seleting the Include inactive option would persist after enabling it</t>
+  </si>
+  <si>
+    <t>The inactive accounts are shown, but exiting out of the current menu and then refreshing it disables the option and the inactive account(s) are no longer shown again</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +337,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,7 +394,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,6 +403,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -641,21 +807,225 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="4" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>

--- a/Vincent_Leung_Portfolio_2016/Issue_Reports.xlsx
+++ b/Vincent_Leung_Portfolio_2016/Issue_Reports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="-300" yWindow="920" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>Technical</t>
   </si>
@@ -297,12 +297,107 @@
   <si>
     <t>The inactive accounts are shown, but exiting out of the current menu and then refreshing it disables the option and the inactive account(s) are no longer shown again</t>
   </si>
+  <si>
+    <t>DR-H-0001</t>
+  </si>
+  <si>
+    <t>Unable to adjust ACTION column in Employees list</t>
+  </si>
+  <si>
+    <t>1. Click Employees in the left menu
+2. In the ACTION column on the right, drag the column slider</t>
+  </si>
+  <si>
+    <t>Column would adjust in width by moving the column border</t>
+  </si>
+  <si>
+    <t>Column unable to adjust either larger or smaller</t>
+  </si>
+  <si>
+    <t>DR-I-0001</t>
+  </si>
+  <si>
+    <t>Record Tax Payment button in Sales Tax Center does not function</t>
+  </si>
+  <si>
+    <t>1. Click Sales Tax from the left menu
+2. Click Record Tax Payment</t>
+  </si>
+  <si>
+    <t>User is brough to screen to enter tax payment information</t>
+  </si>
+  <si>
+    <t>Record Tax Payment does not function. Clicking does not bring up any menus or screens</t>
+  </si>
+  <si>
+    <t>Blank page is loaded after sending a tax report by email</t>
+  </si>
+  <si>
+    <t>DR-I-0002</t>
+  </si>
+  <si>
+    <t>1. Click Sales Tax from the left menu
+2. Click View Report
+3. Click Email
+4. Fill in the To: field and click Send</t>
+  </si>
+  <si>
+    <t>User is presented with a confirmation page that email is sent</t>
+  </si>
+  <si>
+    <t>Email is sent and received, but a blank page loads and the user must manually return to previous screen or separate menu</t>
+  </si>
+  <si>
+    <t>DR-J-0001</t>
+  </si>
+  <si>
+    <t>Unable to re-add account after removing account</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Banking
+2. Click Add account
+3. Choose the bank or card
+4. Enter your account credentials
+5. Select the account and click Connect
+6. Run step 1
+7. Click Edit info
+8. Click Remove account
+9. Run Steps 1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to add a card, delete the card, then re-add the card </t>
+  </si>
+  <si>
+    <t>Unable to re-add the same card after adding it and removing it. Error message appears with no option to view or add it again</t>
+  </si>
+  <si>
+    <t>The following error has occurred: You entered login information for a bank already connected. Either choose a different bank and enter its login information, or start over and choose the bank already connected from the list.</t>
+  </si>
+  <si>
+    <t>Financial account login credentials</t>
+  </si>
+  <si>
+    <t>DR-K-0001</t>
+  </si>
+  <si>
+    <t>Company snapshot report loads and refreshes twice before completing</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click Company Snapshot</t>
+  </si>
+  <si>
+    <t>A report would load showing the overall status of the company</t>
+  </si>
+  <si>
+    <t>The screen flashes with the report loading partially, then a blank screen appears, and the report reloads into completion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,13 +411,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.2"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,7 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,27 +477,24 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -692,356 +777,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="144" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="155" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="215" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
